--- a/files/menus/mtbenson_market/hotcase_mtbenson.xlsx
+++ b/files/menus/mtbenson_market/hotcase_mtbenson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84A57171-C0EF-4B24-9837-8EE7FD89FE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A77BA-223D-438C-9E36-63BE0394515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="2505" windowWidth="24345" windowHeight="16710" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="hotcase_mtbenson" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>Ingredients</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Egg and Cheese Breakfast Sandwich</t>
   </si>
   <si>
-    <t>Beef Burger</t>
-  </si>
-  <si>
     <t>Veggie Burger</t>
   </si>
   <si>
@@ -213,6 +210,30 @@
   </si>
   <si>
     <t>VEG,VGN,DF</t>
+  </si>
+  <si>
+    <t>BC, DF</t>
+  </si>
+  <si>
+    <t>Soy, wheat, milk, gluten. May contain sulphites.</t>
+  </si>
+  <si>
+    <t>Castle Cheese Mozzarella</t>
+  </si>
+  <si>
+    <t>Item will vary daily - find information in the cafeteria.</t>
+  </si>
+  <si>
+    <t>Milk, mustard, wheat. May contain egg, sesame, soy, sulphites.</t>
+  </si>
+  <si>
+    <t>Italian Sausage / Pepperoni / Tomato Sauce / Mozzarella / Parmesan</t>
+  </si>
+  <si>
+    <t>Spinave / Tomato /Onions / Peppers / Tomato Sauce / Mozzarella / Feta / Parmesan</t>
+  </si>
+  <si>
+    <t>Cheese Burger</t>
   </si>
 </sst>
 </file>
@@ -602,7 +623,7 @@
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,19 +664,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -663,10 +684,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -675,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -683,259 +704,259 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/mtbenson_market/hotcase_mtbenson.xlsx
+++ b/files/menus/mtbenson_market/hotcase_mtbenson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A77BA-223D-438C-9E36-63BE0394515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11802973-DDC5-445F-8C16-59C94FBDABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="9975" yWindow="1860" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="hotcase_mtbenson" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>Spring_Rolls_and_Sauce</t>
   </si>
   <si>
-    <t>needed</t>
-  </si>
-  <si>
     <t>Soy, sesame, wheat, milk, may contain eggs.</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>Cheese Burger</t>
+  </si>
+  <si>
+    <t>placeholder</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -741,19 +741,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -804,16 +804,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -824,16 +824,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -844,19 +844,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,10 +884,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -896,18 +896,18 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -916,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,10 +924,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -936,7 +936,7 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/mtbenson_market/hotcase_mtbenson.xlsx
+++ b/files/menus/mtbenson_market/hotcase_mtbenson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11802973-DDC5-445F-8C16-59C94FBDABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7F95A017-3546-41A0-8369-BB688F7718B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="1860" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="2805" yWindow="2370" windowWidth="24510" windowHeight="13215" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="hotcase_mtbenson" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>Ingredients</t>
   </si>
@@ -137,18 +137,9 @@
     <t>Chicken_Strips</t>
   </si>
   <si>
-    <t>Sesame Burger Bun / Beef Patty[Beef, water, toasted wheat crumbs, soy protein, flavour, salt, spices, spice extracts, onion, garlic] / Pickles / Cheddar Cheese / Red Onion</t>
-  </si>
-  <si>
     <t>Island City Seeded Bun</t>
   </si>
   <si>
-    <t>Sesame Burger Bun / Spicy Black Bean Patty[Textured Soy Protein, Cooked Black Beans, Cooked Brown Rice, Onion, Water, Corn Oil, Egg Whites, Diced Tomatoes, Roasted Corn, Bulgur Wheat, Green Chiles, Modified Milk Ingredients, Spices, Yeast Extract, Natural and Artificial Flavours, Lactic Acid, Calcium Phosphate] / Pickles / Cheddar Cheese / Red Onion</t>
-  </si>
-  <si>
-    <t>McCain Gold Crisp Fries[Potatoes, canola oil, wheat flour, modified corn starch, corn flour, salt, autolyzed yeast, baking powder, sodium phosphate, dextrose, modified cellulose, colour]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Soy, wheat, milk, eggs, gluten. Bun made in a facility that also processes: crustacean, shellfish, fish, sulphites, eggs, mustard. </t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>VEG,DF</t>
   </si>
   <si>
-    <t>Potatoes / vegetable oil (canola and/or soybean and/or cottonseed and/or sunflower and/or corn) / salt / dehydrated onion / corn starch / sodium phosphate / dextrose.</t>
-  </si>
-  <si>
     <t>No known priotity allergens.</t>
   </si>
   <si>
@@ -191,9 +179,6 @@
     <t>Chicken breast fillets / Water / Soy protein isolate / Salt / Flavour / Breading</t>
   </si>
   <si>
-    <t>Spring Roll[Flour, Soy Oil, Salt, Water Chestnuts, Cabbage, Carrots, Sweet Corn, Green Beans, Onion, Sugar Snap Peas, Soy Oil, Sugar, Salt, Cornstarch, White Pepper, Sesame Oil] / Sweet and Spicy Thai Sauce.</t>
-  </si>
-  <si>
     <t>Pepperoni &amp; Sausage Calzone</t>
   </si>
   <si>
@@ -227,13 +212,34 @@
     <t>Italian Sausage / Pepperoni / Tomato Sauce / Mozzarella / Parmesan</t>
   </si>
   <si>
-    <t>Spinave / Tomato /Onions / Peppers / Tomato Sauce / Mozzarella / Feta / Parmesan</t>
-  </si>
-  <si>
     <t>Cheese Burger</t>
   </si>
   <si>
     <t>placeholder</t>
+  </si>
+  <si>
+    <t>Sesame Burger Bun / Beef Patty / Pickles / Cheddar Cheese / Red Onion</t>
+  </si>
+  <si>
+    <t>Sesame Burger Bun / Spicy Black Bean Patty / Pickles / Cheddar Cheese / Red Onion</t>
+  </si>
+  <si>
+    <t>McCain Gold Crisp Fries: Potato / Oil / Seasoned Coating</t>
+  </si>
+  <si>
+    <t>Spring Roll / Sweet and Spicy Thai Sauce.</t>
+  </si>
+  <si>
+    <t>Potatoes / Vegetable Oil  / Salt / Dehydrated Onion / Corn Starch / Sodium Phosphate / Dextrose.</t>
+  </si>
+  <si>
+    <t>Spinach / Tomato /Onions / Peppers / Tomato Sauce / Mozzarella / Feta / Parmesan</t>
+  </si>
+  <si>
+    <t>Sausage_and_Pepperoni_Calzone</t>
+  </si>
+  <si>
+    <t>5_Cheese_Veggie_Calzone</t>
   </si>
 </sst>
 </file>
@@ -623,7 +629,7 @@
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,10 +730,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -741,19 +747,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -764,16 +770,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -784,16 +790,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -804,16 +810,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -824,19 +830,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -844,19 +850,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -864,10 +870,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -876,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,10 +890,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -896,18 +902,18 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -916,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,10 +930,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -936,7 +942,7 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
         <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
